--- a/pred_ohlcv/54_21/2019-10-27 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BHP ohlcv.xlsx
@@ -13314,7 +13314,7 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>1156.035729140001</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1112.43572914</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>1129.63572914</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1109.94741745</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1068.24741745</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>1149.047417450001</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1147.147417450001</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>1194.947417450001</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>1196.947417450001</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>1996.947417450001</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>3451.150417450001</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1806.050417450001</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>1819.450417450001</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>1817.150417450001</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>1817.150417450001</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>1817.150417450001</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>1804.550417450001</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>1804.550417450001</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BHP ohlcv.xlsx
@@ -13314,7 +13314,7 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>1133.643529140001</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1119.643529140001</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>1156.035729140001</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>1137.435729140001</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>1146.235729140001</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>1146.235729140001</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>1150.635729140001</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1112.43572914</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>1129.63572914</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1109.94741745</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>1079.54741745</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>1063.04741745</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1068.24741745</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>1149.047417450001</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1147.147417450001</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1149.447417450001</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>1165.747417450001</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>1171.04741745</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>1194.947417450001</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>1196.947417450001</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>1996.947417450001</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>3451.150417450001</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>2017.050417450001</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1806.050417450001</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>1806.050417450001</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
